--- a/hasil uji coba.xlsx
+++ b/hasil uji coba.xlsx
@@ -102,11 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,76 +391,74 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>58.477564102564102</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>61.426282051282001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>57.676282051282001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>61.842948717948701</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
